--- a/summerOly_hosts_cleaned.xlsx
+++ b/summerOly_hosts_cleaned.xlsx
@@ -28,70 +28,70 @@
     <t>France</t>
   </si>
   <si>
+    <t>UnitedStates</t>
+  </si>
+  <si>
+    <t>UnitedKingdom</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cancelled (WWI – Berlin had been awarded)</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cancelled (WWII – Tokyo had been awarded)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cancelled (WWII – London had been awarded)</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>WestGermany</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>SovietUnion</t>
+  </si>
+  <si>
+    <t>SouthKorea</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
     <t>United States</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cancelled (WWI – Berlin had been awarded)</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>UnitedStates</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cancelled (WWII – Tokyo had been awarded)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cancelled (WWII – London had been awarded)</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>West Germany</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Soviet Union</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Brazil</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
         <v>1932</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
@@ -563,7 +563,7 @@
         <v>1936</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
@@ -571,7 +571,7 @@
         <v>1940</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
@@ -579,7 +579,7 @@
         <v>1944</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
@@ -595,7 +595,7 @@
         <v>1952</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
@@ -603,7 +603,7 @@
         <v>1956</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
@@ -611,7 +611,7 @@
         <v>1960</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
@@ -619,7 +619,7 @@
         <v>1964</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
@@ -627,7 +627,7 @@
         <v>1968</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
@@ -635,7 +635,7 @@
         <v>1972</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
@@ -643,7 +643,7 @@
         <v>1976</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
@@ -651,7 +651,7 @@
         <v>1980</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
@@ -667,7 +667,7 @@
         <v>1988</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
@@ -675,7 +675,7 @@
         <v>1992</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
@@ -683,7 +683,7 @@
         <v>1996</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
@@ -691,7 +691,7 @@
         <v>2000</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
@@ -707,7 +707,7 @@
         <v>2008</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
@@ -723,7 +723,7 @@
         <v>2016</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
@@ -731,7 +731,7 @@
         <v>2020</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
@@ -747,7 +747,7 @@
         <v>2028</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
@@ -755,7 +755,7 @@
         <v>2032</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
